--- a/Datos/Database by set/Set with text box/Xlsx sets/Theros Promos (PTHS).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Theros Promos (PTHS).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A59"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,406 +444,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Abhorrent Overlord</t>
+          <t>('Abhorrent Overlord', ['{5}{B}{B}', 'Creature — Demon', 'Flying', 'When Abhorrent Overlord enters the battlefield, create a number of 1/1 black Harpy creature tokens with flying equal to your devotion to black. (Each {B} in the mana costs of permanents you control counts toward your devotion to black.)', 'At the beginning of your upkeep, sacrifice a creature.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{5}{B}{B}</t>
+          <t>('Anthousa, Setessan Hero', ['{3}{G}{G}', 'Legendary Creature — Human Warrior', 'Heroic — Whenever you cast a spell that targets Anthousa, Setessan Hero, up to three target lands you control each become 2/2 Warrior creatures until end of turn. They’re still lands.', '4/5'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Demon</t>
+          <t>('Bident of Thassa', ['{2}{U}{U}', 'Legendary Enchantment Artifact', 'Whenever a creature you control deals combat damage to a player, you may draw a card.', '{1}{U}, {T}: Creatures your opponents control attack this turn if able.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Celestial Archon', ['{3}{W}{W}', 'Enchantment Creature — Archon', 'Bestow {5}{W}{W} (If you cast this card for its bestow cost, it’s an Aura spell with enchant creature. It becomes a creature again if it’s not attached to a creature.)', 'Flying, first strike', 'Enchanted creature gets +4/+4 and has flying and first strike.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>When Abhorrent Overlord enters the battlefield, create a number of 1/1 black Harpy creature tokens with flying equal to your devotion to black. (Each {B} in the mana costs of permanents you control counts toward your devotion to black.)</t>
+          <t>('Ember Swallower', ['{2}{R}{R}', 'Creature — Elemental', '{5}{R}{R}: Monstrosity 3. (If this creature isn’t monstrous, put three +1/+1 counters on it and it becomes monstrous.)', 'When Ember Swallower becomes monstrous, each player sacrifices three lands.', '4/5'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>At the beginning of your upkeep, sacrifice a creature.</t>
+          <t>("Karametra's Acolyte", ['{3}{G}', 'Creature — Human Druid', '{T}: Add an amount of {G} equal to your devotion to green. (Each {G} in the mana costs of permanents you control counts toward your devotion to green.)', '1/4'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6/6</t>
+          <t>('Nighthowler', ['{1}{B}{B}', 'Enchantment Creature — Horror', 'Bestow {2}{B}{B} (If you cast this card for its bestow cost, it’s an Aura spell with enchant creature. It becomes a creature again if it’s not attached to a creature.)', 'Nighthowler and enchanted creature each get +X/+X, where X is the number of creature cards in all graveyards.', '0/0'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Anthousa, Setessan Hero</t>
+          <t>('Phalanx Leader', ['{W}{W}', 'Creature — Human Soldier', 'Heroic — Whenever you cast a spell that targets Phalanx Leader, put a +1/+1 counter on each creature you control.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>{3}{G}{G}</t>
+          <t>('Shipbreaker Kraken', ['{4}{U}{U}', 'Creature — Kraken', '{6}{U}{U}: Monstrosity 4. (If this creature isn’t monstrous, put four +1/+1 counters on it and it becomes monstrous.)', 'When Shipbreaker Kraken becomes monstrous, tap up to four target creatures. Those creatures don’t untap during their controllers’ untap steps for as long as you control Shipbreaker Kraken.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Legendary Creature — Human Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Heroic — Whenever you cast a spell that targets Anthousa, Setessan Hero, up to three target lands you control each become 2/2 Warrior creatures until end of turn. They’re still lands.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Bident of Thassa</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{2}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Legendary Enchantment Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Whenever a creature you control deals combat damage to a player, you may draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>{1}{U}, {T}: Creatures your opponents control attack this turn if able.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Celestial Archon</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>{3}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Enchantment Creature — Archon</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Bestow {5}{W}{W} (If you cast this card for its bestow cost, it’s an Aura spell with enchant creature. It becomes a creature again if it’s not attached to a creature.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Flying, first strike</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Enchanted creature gets +4/+4 and has flying and first strike.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Ember Swallower</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>{2}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Creature — Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>{5}{R}{R}: Monstrosity 3. (If this creature isn’t monstrous, put three +1/+1 counters on it and it becomes monstrous.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>When Ember Swallower becomes monstrous, each player sacrifices three lands.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>4/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Karametra's Acolyte</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>{3}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Creature — Human Druid</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>{T}: Add an amount of {G} equal to your devotion to green. (Each {G} in the mana costs of permanents you control counts toward your devotion to green.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>1/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Nighthowler</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>{1}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Enchantment Creature — Horror</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Bestow {2}{B}{B} (If you cast this card for its bestow cost, it’s an Aura spell with enchant creature. It becomes a creature again if it’s not attached to a creature.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Nighthowler and enchanted creature each get +X/+X, where X is the number of creature cards in all graveyards.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Phalanx Leader</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Creature — Human Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Heroic — Whenever you cast a spell that targets Phalanx Leader, put a +1/+1 counter on each creature you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Shipbreaker Kraken</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>{4}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Creature — Kraken</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>{6}{U}{U}: Monstrosity 4. (If this creature isn’t monstrous, put four +1/+1 counters on it and it becomes monstrous.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>When Shipbreaker Kraken becomes monstrous, tap up to four target creatures. Those creatures don’t untap during their controllers’ untap steps for as long as you control Shipbreaker Kraken.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>6/6</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Sylvan Caryatid</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>{1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Creature — Plant</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Defender, hexproof</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>{T}: Add one mana of any color.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>0/3</t>
+          <t>('Sylvan Caryatid', ['{1}{G}', 'Creature — Plant', 'Defender, hexproof', '{T}: Add one mana of any color.', '0/3'])</t>
         </is>
       </c>
     </row>
